--- a/QA Nomina..xlsx
+++ b/QA Nomina..xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nomina2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44414059-A3CF-49AA-A230-C545543472AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3D3556-3C6E-45F4-8E93-32723A70B0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B6C8D6F8-3448-4699-8C91-C0AC01DDFC7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B6C8D6F8-3448-4699-8C91-C0AC01DDFC7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Creacion Nuevo registro" sheetId="1" r:id="rId1"/>
     <sheet name="Validacion funcionalidad vistas" sheetId="2" r:id="rId2"/>
     <sheet name="Funcionalidad Informacion audit" sheetId="3" r:id="rId3"/>
+    <sheet name="Validacion entidad completa" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="28">
   <si>
     <t>Formulario</t>
   </si>
@@ -116,6 +117,15 @@
   </si>
   <si>
     <t>Funcionalidad Informacion Auditoria</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>Informacion registro</t>
+  </si>
+  <si>
+    <t>Auditoria ISO 27001</t>
   </si>
 </sst>
 </file>
@@ -159,9 +169,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CA1725-5061-4AC9-9878-A6621DDDD292}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,4 +1201,242 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EAC442-9622-4F18-8ECF-5002FED5C181}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QA Nomina..xlsx
+++ b/QA Nomina..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nomina2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3D3556-3C6E-45F4-8E93-32723A70B0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26866F2D-1325-49C5-AAB1-7CE91CA11212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B6C8D6F8-3448-4699-8C91-C0AC01DDFC7E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="29">
   <si>
     <t>Formulario</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Auditoria ISO 27001</t>
+  </si>
+  <si>
+    <t>Empleados desvinculados</t>
   </si>
 </sst>
 </file>
@@ -1205,15 +1208,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EAC442-9622-4F18-8ECF-5002FED5C181}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="5" width="27.42578125" customWidth="1"/>
@@ -1280,55 +1283,95 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1338,7 +1381,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1348,7 +1391,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1358,7 +1401,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1368,7 +1411,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1378,7 +1421,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1388,7 +1431,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1398,7 +1441,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1408,7 +1451,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1418,7 +1461,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1428,7 +1471,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1436,6 +1479,16 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
